--- a/biology/Botanique/Hederopsis_major/Hederopsis_major.xlsx
+++ b/biology/Botanique/Hederopsis_major/Hederopsis_major.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macropanax maingayi est une espèce de plantes de la famille des Araliaceae.
 Elle est classée espèce vulnérable par l’Union internationale pour la conservation de la nature sous le nom de Hederopsis maingayi.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Macropanax maingayi a pour synonymes[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Macropanax maingayi a pour synonymes : 
 synonyme homotypique :
 Hederopsis maingayi C.B.Clarke in J.D.Hooker, Fl. Brit. India 2: 739 (1879). (basionyme)
 synonymes hétérotypiques :
